--- a/Probabilidad y estadistica/Trabajo final/contingency_table.xlsx
+++ b/Probabilidad y estadistica/Trabajo final/contingency_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN44"/>
+  <dimension ref="A1:AM43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,11 +553,6 @@
       <c r="AM1" s="1" t="n">
         <v>190</v>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -677,9 +672,6 @@
       <c r="AM2" t="n">
         <v>0</v>
       </c>
-      <c r="AN2" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -799,9 +791,6 @@
       <c r="AM3" t="n">
         <v>0</v>
       </c>
-      <c r="AN3" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -921,9 +910,6 @@
       <c r="AM4" t="n">
         <v>0</v>
       </c>
-      <c r="AN4" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1043,9 +1029,6 @@
       <c r="AM5" t="n">
         <v>0</v>
       </c>
-      <c r="AN5" t="n">
-        <v>8</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1165,9 +1148,6 @@
       <c r="AM6" t="n">
         <v>0</v>
       </c>
-      <c r="AN6" t="n">
-        <v>10</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1287,9 +1267,6 @@
       <c r="AM7" t="n">
         <v>0</v>
       </c>
-      <c r="AN7" t="n">
-        <v>18</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1409,9 +1386,6 @@
       <c r="AM8" t="n">
         <v>0</v>
       </c>
-      <c r="AN8" t="n">
-        <v>37</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1531,9 +1505,6 @@
       <c r="AM9" t="n">
         <v>0</v>
       </c>
-      <c r="AN9" t="n">
-        <v>57</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1653,9 +1624,6 @@
       <c r="AM10" t="n">
         <v>0</v>
       </c>
-      <c r="AN10" t="n">
-        <v>79</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1775,9 +1743,6 @@
       <c r="AM11" t="n">
         <v>0</v>
       </c>
-      <c r="AN11" t="n">
-        <v>156</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1897,9 +1862,6 @@
       <c r="AM12" t="n">
         <v>0</v>
       </c>
-      <c r="AN12" t="n">
-        <v>200</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -2019,9 +1981,6 @@
       <c r="AM13" t="n">
         <v>0</v>
       </c>
-      <c r="AN13" t="n">
-        <v>298</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -2141,9 +2100,6 @@
       <c r="AM14" t="n">
         <v>0</v>
       </c>
-      <c r="AN14" t="n">
-        <v>447</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -2263,9 +2219,6 @@
       <c r="AM15" t="n">
         <v>0</v>
       </c>
-      <c r="AN15" t="n">
-        <v>534</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -2385,9 +2338,6 @@
       <c r="AM16" t="n">
         <v>0</v>
       </c>
-      <c r="AN16" t="n">
-        <v>765</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -2507,9 +2457,6 @@
       <c r="AM17" t="n">
         <v>0</v>
       </c>
-      <c r="AN17" t="n">
-        <v>951</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -2629,9 +2576,6 @@
       <c r="AM18" t="n">
         <v>0</v>
       </c>
-      <c r="AN18" t="n">
-        <v>1145</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -2751,9 +2695,6 @@
       <c r="AM19" t="n">
         <v>0</v>
       </c>
-      <c r="AN19" t="n">
-        <v>1357</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -2873,9 +2814,6 @@
       <c r="AM20" t="n">
         <v>0</v>
       </c>
-      <c r="AN20" t="n">
-        <v>1561</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -2995,9 +2933,6 @@
       <c r="AM21" t="n">
         <v>1</v>
       </c>
-      <c r="AN21" t="n">
-        <v>1774</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -3117,9 +3052,6 @@
       <c r="AM22" t="n">
         <v>0</v>
       </c>
-      <c r="AN22" t="n">
-        <v>1816</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -3239,9 +3171,6 @@
       <c r="AM23" t="n">
         <v>0</v>
       </c>
-      <c r="AN23" t="n">
-        <v>1890</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -3361,9 +3290,6 @@
       <c r="AM24" t="n">
         <v>0</v>
       </c>
-      <c r="AN24" t="n">
-        <v>1878</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -3483,9 +3409,6 @@
       <c r="AM25" t="n">
         <v>0</v>
       </c>
-      <c r="AN25" t="n">
-        <v>1768</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -3605,9 +3528,6 @@
       <c r="AM26" t="n">
         <v>0</v>
       </c>
-      <c r="AN26" t="n">
-        <v>1689</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -3727,9 +3647,6 @@
       <c r="AM27" t="n">
         <v>0</v>
       </c>
-      <c r="AN27" t="n">
-        <v>1475</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -3849,9 +3766,6 @@
       <c r="AM28" t="n">
         <v>0</v>
       </c>
-      <c r="AN28" t="n">
-        <v>1220</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -3971,9 +3885,6 @@
       <c r="AM29" t="n">
         <v>0</v>
       </c>
-      <c r="AN29" t="n">
-        <v>1053</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -4093,9 +4004,6 @@
       <c r="AM30" t="n">
         <v>0</v>
       </c>
-      <c r="AN30" t="n">
-        <v>785</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -4215,9 +4123,6 @@
       <c r="AM31" t="n">
         <v>0</v>
       </c>
-      <c r="AN31" t="n">
-        <v>621</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -4337,9 +4242,6 @@
       <c r="AM32" t="n">
         <v>1</v>
       </c>
-      <c r="AN32" t="n">
-        <v>425</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -4459,9 +4361,6 @@
       <c r="AM33" t="n">
         <v>0</v>
       </c>
-      <c r="AN33" t="n">
-        <v>338</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -4581,9 +4480,6 @@
       <c r="AM34" t="n">
         <v>0</v>
       </c>
-      <c r="AN34" t="n">
-        <v>227</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -4703,9 +4599,6 @@
       <c r="AM35" t="n">
         <v>1</v>
       </c>
-      <c r="AN35" t="n">
-        <v>157</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -4825,9 +4718,6 @@
       <c r="AM36" t="n">
         <v>0</v>
       </c>
-      <c r="AN36" t="n">
-        <v>117</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -4947,9 +4837,6 @@
       <c r="AM37" t="n">
         <v>0</v>
       </c>
-      <c r="AN37" t="n">
-        <v>55</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -5069,9 +4956,6 @@
       <c r="AM38" t="n">
         <v>0</v>
       </c>
-      <c r="AN38" t="n">
-        <v>38</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -5191,9 +5075,6 @@
       <c r="AM39" t="n">
         <v>0</v>
       </c>
-      <c r="AN39" t="n">
-        <v>20</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -5313,9 +5194,6 @@
       <c r="AM40" t="n">
         <v>0</v>
       </c>
-      <c r="AN40" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -5435,9 +5313,6 @@
       <c r="AM41" t="n">
         <v>0</v>
       </c>
-      <c r="AN41" t="n">
-        <v>9</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -5557,9 +5432,6 @@
       <c r="AM42" t="n">
         <v>0</v>
       </c>
-      <c r="AN42" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -5678,133 +5550,6 @@
       </c>
       <c r="AM43" t="n">
         <v>0</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>2</v>
-      </c>
-      <c r="C44" t="n">
-        <v>3</v>
-      </c>
-      <c r="D44" t="n">
-        <v>2</v>
-      </c>
-      <c r="E44" t="n">
-        <v>2</v>
-      </c>
-      <c r="F44" t="n">
-        <v>7</v>
-      </c>
-      <c r="G44" t="n">
-        <v>33</v>
-      </c>
-      <c r="H44" t="n">
-        <v>53</v>
-      </c>
-      <c r="I44" t="n">
-        <v>74</v>
-      </c>
-      <c r="J44" t="n">
-        <v>156</v>
-      </c>
-      <c r="K44" t="n">
-        <v>236</v>
-      </c>
-      <c r="L44" t="n">
-        <v>368</v>
-      </c>
-      <c r="M44" t="n">
-        <v>488</v>
-      </c>
-      <c r="N44" t="n">
-        <v>670</v>
-      </c>
-      <c r="O44" t="n">
-        <v>887</v>
-      </c>
-      <c r="P44" t="n">
-        <v>1126</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>1443</v>
-      </c>
-      <c r="R44" t="n">
-        <v>1650</v>
-      </c>
-      <c r="S44" t="n">
-        <v>1805</v>
-      </c>
-      <c r="T44" t="n">
-        <v>2030</v>
-      </c>
-      <c r="U44" t="n">
-        <v>2071</v>
-      </c>
-      <c r="V44" t="n">
-        <v>1994</v>
-      </c>
-      <c r="W44" t="n">
-        <v>1964</v>
-      </c>
-      <c r="X44" t="n">
-        <v>1746</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>1505</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>1259</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>971</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>806</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>604</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>393</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>258</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>165</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>90</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>66</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL44" t="n">
-        <v>6</v>
-      </c>
-      <c r="AM44" t="n">
-        <v>3</v>
-      </c>
-      <c r="AN44" t="n">
-        <v>25000</v>
       </c>
     </row>
   </sheetData>

--- a/Probabilidad y estadistica/Trabajo final/contingency_table.xlsx
+++ b/Probabilidad y estadistica/Trabajo final/contingency_table.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Weight</t>
+          <t>peso</t>
         </is>
       </c>
       <c r="B1" s="1" t="n">
